--- a/Data/Tags_fields/col_names_dim.xlsx
+++ b/Data/Tags_fields/col_names_dim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/bibliometrix_dd_europe/Data/Tags_fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0B3A46-5617-094A-9B48-2028DA9A777E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5116A9B1-791F-4145-A153-BD4274C197B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>Index</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Authors</t>
-  </si>
-  <si>
-    <t>Web of Science Core Collection Times Cited Count</t>
   </si>
   <si>
     <t>Cited References</t>
@@ -224,6 +221,18 @@
       </rPr>
       <t xml:space="preserve"> tag fields</t>
     </r>
+  </si>
+  <si>
+    <t> Times Cited Count</t>
+  </si>
+  <si>
+    <t>Var type</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -1086,30 +1095,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1119,8 +1131,11 @@
       <c r="C2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1130,8 +1145,11 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1141,8 +1159,11 @@
       <c r="C4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1152,8 +1173,11 @@
       <c r="C5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1163,8 +1187,11 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1174,8 +1201,11 @@
       <c r="C7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1185,8 +1215,11 @@
       <c r="C8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1196,8 +1229,11 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1205,10 +1241,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1218,8 +1257,11 @@
       <c r="C11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1229,8 +1271,11 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1240,8 +1285,11 @@
       <c r="C13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1251,8 +1299,11 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1260,10 +1311,13 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1273,8 +1327,11 @@
       <c r="C16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1282,10 +1339,13 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1293,10 +1353,13 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1304,10 +1367,13 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1315,10 +1381,13 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1326,10 +1395,13 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1337,10 +1409,13 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1348,10 +1423,13 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1359,10 +1437,13 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1370,10 +1451,13 @@
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1381,10 +1465,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1392,10 +1479,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1403,10 +1493,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1414,10 +1507,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1425,10 +1521,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1436,10 +1535,14 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>